--- a/Properties/template.xlsx
+++ b/Properties/template.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="CONTENT">Zusammenfassung!$B$3</definedName>
+    <definedName name="HEADER">Zusammenfassung!$B$2</definedName>
     <definedName name="Name">Zusammenfassung!$B$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -17,24 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Name </t>
+    <t>CONTENT</t>
   </si>
   <si>
-    <t>Anschrift</t>
-  </si>
-  <si>
-    <t>Ort</t>
-  </si>
-  <si>
-    <t>Rechnungsnummer</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Bertrag</t>
+    <t>HEADER</t>
   </si>
 </sst>
 </file>
@@ -53,12 +43,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -88,23 +84,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -418,29 +405,22 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
